--- a/REGULAR/ONT/BAYOT, ELAINE.xlsx
+++ b/REGULAR/ONT/BAYOT, ELAINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A115E1-01C5-4EB2-9E50-8A402CAF53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -177,9 +178,6 @@
     </r>
   </si>
   <si>
-    <t>10/16/2014</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -278,9 +276,6 @@
     <t>3/16-31/2022</t>
   </si>
   <si>
-    <t>BAYOT ELAINE BULLON+B11</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -354,12 +349,24 @@
   </si>
   <si>
     <t>UT(0-0-35)</t>
+  </si>
+  <si>
+    <t>BAYOT ELAINE BULLON</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/8, 11/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1028,7 +1035,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1045,25 +1052,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1370,39 +1377,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A105" activePane="bottomLeft"/>
-      <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <pane ySplit="3696" topLeftCell="A135" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138:A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1418,12 +1425,12 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -1440,19 +1447,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1462,7 +1469,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1470,7 +1477,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1483,7 +1490,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1500,7 +1507,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1544,7 +1551,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.35799999999999</v>
+        <v>70.10799999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1554,12 +1561,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>122.792</v>
+        <v>131.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1579,7 +1586,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -1597,9 +1604,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>44</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>41928</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -1617,7 +1624,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>41944</v>
       </c>
@@ -1637,7 +1644,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>41974</v>
       </c>
@@ -1657,9 +1664,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -1675,7 +1682,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>42005</v>
       </c>
@@ -1695,7 +1702,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>42036</v>
       </c>
@@ -1715,7 +1722,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>42064</v>
       </c>
@@ -1735,7 +1742,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42095</v>
       </c>
@@ -1755,7 +1762,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42125</v>
       </c>
@@ -1775,7 +1782,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>42156</v>
       </c>
@@ -1795,7 +1802,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>42186</v>
       </c>
@@ -1815,7 +1822,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>42217</v>
       </c>
@@ -1835,7 +1842,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42248</v>
       </c>
@@ -1855,7 +1862,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42278</v>
       </c>
@@ -1875,7 +1882,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>42309</v>
       </c>
@@ -1895,12 +1902,12 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>42339</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1919,9 +1926,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -1939,7 +1946,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>42370</v>
       </c>
@@ -1959,7 +1966,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>42401</v>
       </c>
@@ -1979,12 +1986,12 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>42430</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -2002,10 +2009,10 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>42461</v>
       </c>
@@ -2025,12 +2032,12 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>42491</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2048,10 +2055,10 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>42522</v>
       </c>
@@ -2071,7 +2078,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>42552</v>
       </c>
@@ -2091,7 +2098,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>42583</v>
       </c>
@@ -2111,7 +2118,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>42614</v>
       </c>
@@ -2131,7 +2138,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>42644</v>
       </c>
@@ -2151,7 +2158,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>42675</v>
       </c>
@@ -2171,12 +2178,12 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>42705</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2195,9 +2202,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -2215,7 +2222,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>42736</v>
       </c>
@@ -2235,7 +2242,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>42767</v>
       </c>
@@ -2255,12 +2262,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>42795</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -2278,10 +2285,10 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>42826</v>
       </c>
@@ -2301,7 +2308,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>42856</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>42887</v>
       </c>
@@ -2341,7 +2348,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>42917</v>
       </c>
@@ -2361,12 +2368,12 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>42948</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -2387,12 +2394,12 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>42979</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -2410,13 +2417,13 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -2434,10 +2441,10 @@
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43009</v>
       </c>
@@ -2457,7 +2464,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43040</v>
       </c>
@@ -2477,12 +2484,12 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43070</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -2501,9 +2508,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -2521,7 +2528,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43101</v>
       </c>
@@ -2541,12 +2548,12 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43132</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -2565,12 +2572,12 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43160</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -2586,10 +2593,10 @@
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43191</v>
       </c>
@@ -2609,12 +2616,12 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43221</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -2632,10 +2639,10 @@
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43252</v>
       </c>
@@ -2655,7 +2662,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43282</v>
       </c>
@@ -2675,7 +2682,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43313</v>
       </c>
@@ -2695,12 +2702,12 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>43344</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -2718,10 +2725,10 @@
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>43374</v>
       </c>
@@ -2741,7 +2748,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>43405</v>
       </c>
@@ -2761,7 +2768,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>43435</v>
       </c>
@@ -2781,9 +2788,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2799,7 +2806,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>43466</v>
       </c>
@@ -2819,7 +2826,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>43497</v>
       </c>
@@ -2839,7 +2846,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>43525</v>
       </c>
@@ -2859,7 +2866,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>43556</v>
       </c>
@@ -2879,7 +2886,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43586</v>
       </c>
@@ -2899,7 +2906,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>43617</v>
       </c>
@@ -2919,7 +2926,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>43647</v>
       </c>
@@ -2939,7 +2946,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>43678</v>
       </c>
@@ -2959,7 +2966,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>43709</v>
       </c>
@@ -2979,7 +2986,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>43739</v>
       </c>
@@ -2999,7 +3006,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>43770</v>
       </c>
@@ -3019,12 +3026,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>43800</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -3043,9 +3050,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3061,7 +3068,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>43831</v>
       </c>
@@ -3081,7 +3088,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>43862</v>
       </c>
@@ -3101,12 +3108,12 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>43891</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -3122,10 +3129,10 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>43922</v>
       </c>
@@ -3145,7 +3152,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>43952</v>
       </c>
@@ -3165,7 +3172,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>43983</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44013</v>
       </c>
@@ -3205,7 +3212,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44044</v>
       </c>
@@ -3225,7 +3232,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44075</v>
       </c>
@@ -3245,7 +3252,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44105</v>
       </c>
@@ -3265,7 +3272,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44136</v>
       </c>
@@ -3285,12 +3292,12 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44166</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -3309,9 +3316,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3327,7 +3334,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44197</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44228</v>
       </c>
@@ -3367,7 +3374,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44256</v>
       </c>
@@ -3387,7 +3394,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44287</v>
       </c>
@@ -3407,7 +3414,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44317</v>
       </c>
@@ -3427,7 +3434,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44348</v>
       </c>
@@ -3447,7 +3454,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44378</v>
       </c>
@@ -3467,7 +3474,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44409</v>
       </c>
@@ -3487,7 +3494,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44440</v>
       </c>
@@ -3507,7 +3514,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44470</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>44501</v>
       </c>
@@ -3547,12 +3554,12 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44531</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -3571,9 +3578,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3589,7 +3596,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44562</v>
       </c>
@@ -3609,7 +3616,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>44593</v>
       </c>
@@ -3629,12 +3636,12 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>44621</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -3650,13 +3657,13 @@
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
@@ -3672,13 +3679,13 @@
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39">
@@ -3694,15 +3701,15 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>44652</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -3720,15 +3727,15 @@
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>44682</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -3747,12 +3754,12 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>44713</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -3771,12 +3778,12 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>44743</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -3795,12 +3802,12 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>44774</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -3819,12 +3826,12 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>44805</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -3842,10 +3849,10 @@
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>44835</v>
       </c>
@@ -3865,7 +3872,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>44866</v>
       </c>
@@ -3885,12 +3892,12 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>44896</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -3909,9 +3916,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3927,7 +3934,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>44927</v>
       </c>
@@ -3947,12 +3954,12 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>44958</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -3970,15 +3977,15 @@
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>44986</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -3996,13 +4003,13 @@
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4019,10 +4026,10 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39">
@@ -4041,7 +4048,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45017</v>
       </c>
@@ -4061,103 +4068,373 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45047</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39">
         <v>3</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45078</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="39"/>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45108</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45139</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45170</v>
       </c>
       <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="43"/>
       <c r="E133" s="9"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="43"/>
       <c r="I133" s="9"/>
       <c r="J133" s="12"/>
       <c r="K133" s="15"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4174,10 +4451,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4200,28 +4477,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4234,7 +4511,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4263,7 +4540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.625</v>
       </c>
@@ -4291,17 +4568,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4322,7 +4599,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4349,7 +4626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4375,7 +4652,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4401,7 +4678,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4427,7 +4704,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4453,7 +4730,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4479,7 +4756,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4505,7 +4782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4531,7 +4808,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4551,7 +4828,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4571,7 +4848,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4591,7 +4868,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4612,7 +4889,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4633,7 +4910,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4654,7 +4931,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4675,7 +4952,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4696,7 +4973,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4717,7 +4994,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4738,7 +5015,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4759,7 +5036,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4780,7 +5057,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4801,7 +5078,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4822,7 +5099,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4843,7 +5120,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4864,7 +5141,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4885,7 +5162,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4906,7 +5183,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4927,7 +5204,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4948,7 +5225,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4969,7 +5246,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4990,7 +5267,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5011,7 +5288,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5020,7 +5297,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5029,7 +5306,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5038,7 +5315,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5047,7 +5324,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5056,7 +5333,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5065,7 +5342,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5074,7 +5351,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5083,7 +5360,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5092,7 +5369,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5101,7 +5378,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5110,7 +5387,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5119,7 +5396,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5128,7 +5405,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5137,7 +5414,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5146,7 +5423,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5155,7 +5432,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5164,7 +5441,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5173,7 +5450,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5182,7 +5459,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5191,7 +5468,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5200,7 +5477,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5209,7 +5486,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5218,7 +5495,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5227,7 +5504,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5236,7 +5513,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5245,7 +5522,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5254,7 +5531,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5263,7 +5540,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5272,7 +5549,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
